--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ncam1-Robo3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ncam1-Robo3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Ncam1</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6816986666666667</v>
+        <v>0.9949870000000001</v>
       </c>
       <c r="H2">
-        <v>2.045096</v>
+        <v>2.984961</v>
       </c>
       <c r="I2">
-        <v>0.01110711092851045</v>
+        <v>0.03855738270564991</v>
       </c>
       <c r="J2">
-        <v>0.01110711092851045</v>
+        <v>0.03855738270564991</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,42 +561,42 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.935833</v>
+        <v>1.326796666666667</v>
       </c>
       <c r="N2">
-        <v>5.807499</v>
+        <v>3.98039</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9964117671208325</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9964117671208325</v>
       </c>
       <c r="Q2">
-        <v>1.319654774989333</v>
+        <v>1.320145434976667</v>
       </c>
       <c r="R2">
-        <v>11.876892974904</v>
+        <v>11.88130891479</v>
       </c>
       <c r="S2">
-        <v>0.01110711092851045</v>
+        <v>0.03841902983729085</v>
       </c>
       <c r="T2">
-        <v>0.01110711092851045</v>
+        <v>0.03841902983729086</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,57 +605,57 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.469728666666667</v>
+        <v>0.9949870000000001</v>
       </c>
       <c r="H3">
-        <v>25.409186</v>
+        <v>2.984961</v>
       </c>
       <c r="I3">
-        <v>0.1379997063732728</v>
+        <v>0.03855738270564991</v>
       </c>
       <c r="J3">
-        <v>0.1379997063732728</v>
+        <v>0.03855738270564991</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>1.935833</v>
+        <v>0.004778</v>
       </c>
       <c r="N3">
-        <v>5.807499</v>
+        <v>0.014334</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.003588232879167623</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.003588232879167622</v>
       </c>
       <c r="Q3">
-        <v>16.39598025397933</v>
+        <v>0.004754047886000001</v>
       </c>
       <c r="R3">
-        <v>147.563822285814</v>
+        <v>0.042786430974</v>
       </c>
       <c r="S3">
-        <v>0.1379997063732728</v>
+        <v>0.0001383528683590621</v>
       </c>
       <c r="T3">
-        <v>0.1379997063732728</v>
+        <v>0.0001383528683590621</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -664,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3748256666666667</v>
+        <v>8.469728666666667</v>
       </c>
       <c r="H4">
-        <v>1.124477</v>
+        <v>25.409186</v>
       </c>
       <c r="I4">
-        <v>0.006107141559886992</v>
+        <v>0.3282159160005915</v>
       </c>
       <c r="J4">
-        <v>0.006107141559886992</v>
+        <v>0.3282159160005916</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,43 +685,43 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.935833</v>
+        <v>1.326796666666667</v>
       </c>
       <c r="N4">
-        <v>5.807499</v>
+        <v>3.98039</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.9964117671208325</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.9964117671208325</v>
       </c>
       <c r="Q4">
-        <v>0.7255998947803333</v>
+        <v>11.23760776250444</v>
       </c>
       <c r="R4">
-        <v>6.530399053022999</v>
+        <v>101.13846986254</v>
       </c>
       <c r="S4">
-        <v>0.006107141559886992</v>
+        <v>0.3270382008593321</v>
       </c>
       <c r="T4">
-        <v>0.006107141559886992</v>
+        <v>0.3270382008593322</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -726,57 +729,57 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>51.70379466666666</v>
+        <v>8.469728666666667</v>
       </c>
       <c r="H5">
-        <v>155.111384</v>
+        <v>25.409186</v>
       </c>
       <c r="I5">
-        <v>0.8424246824416952</v>
+        <v>0.3282159160005915</v>
       </c>
       <c r="J5">
-        <v>0.8424246824416952</v>
+        <v>0.3282159160005916</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.935833</v>
+        <v>0.004778</v>
       </c>
       <c r="N5">
-        <v>5.807499</v>
+        <v>0.014334</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.003588232879167623</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.003588232879167622</v>
       </c>
       <c r="Q5">
-        <v>100.0899119409573</v>
+        <v>0.04046836356933334</v>
       </c>
       <c r="R5">
-        <v>900.8092074686159</v>
+        <v>0.364215272124</v>
       </c>
       <c r="S5">
-        <v>0.8424246824416952</v>
+        <v>0.001177715141259441</v>
       </c>
       <c r="T5">
-        <v>0.8424246824416952</v>
+        <v>0.001177715141259441</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -788,16 +791,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.1449283333333333</v>
+        <v>0.04495399999999999</v>
       </c>
       <c r="H6">
-        <v>0.434785</v>
+        <v>0.134862</v>
       </c>
       <c r="I6">
-        <v>0.002361358696634494</v>
+        <v>0.001742041435867791</v>
       </c>
       <c r="J6">
-        <v>0.002361358696634494</v>
+        <v>0.001742041435867791</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +809,462 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.935833</v>
+        <v>1.326796666666667</v>
       </c>
       <c r="N6">
-        <v>5.807499</v>
+        <v>3.98039</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.9964117671208325</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.9964117671208325</v>
       </c>
       <c r="Q6">
-        <v>0.2805570503016667</v>
+        <v>0.05964481735333332</v>
       </c>
       <c r="R6">
-        <v>2.525013452715</v>
+        <v>0.5368033561799999</v>
       </c>
       <c r="S6">
-        <v>0.002361358696634494</v>
+        <v>0.001735790585510738</v>
       </c>
       <c r="T6">
-        <v>0.002361358696634494</v>
+        <v>0.001735790585510738</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.04495399999999999</v>
+      </c>
+      <c r="H7">
+        <v>0.134862</v>
+      </c>
+      <c r="I7">
+        <v>0.001742041435867791</v>
+      </c>
+      <c r="J7">
+        <v>0.001742041435867791</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.004778</v>
+      </c>
+      <c r="N7">
+        <v>0.014334</v>
+      </c>
+      <c r="O7">
+        <v>0.003588232879167623</v>
+      </c>
+      <c r="P7">
+        <v>0.003588232879167622</v>
+      </c>
+      <c r="Q7">
+        <v>0.000214790212</v>
+      </c>
+      <c r="R7">
+        <v>0.001933111908</v>
+      </c>
+      <c r="S7">
+        <v>6.250850357053183E-06</v>
+      </c>
+      <c r="T7">
+        <v>6.250850357053183E-06</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>15.96019966666667</v>
+      </c>
+      <c r="H8">
+        <v>47.880599</v>
+      </c>
+      <c r="I8">
+        <v>0.6184839868322428</v>
+      </c>
+      <c r="J8">
+        <v>0.6184839868322429</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.326796666666667</v>
+      </c>
+      <c r="N8">
+        <v>3.98039</v>
+      </c>
+      <c r="O8">
+        <v>0.9964117671208325</v>
+      </c>
+      <c r="P8">
+        <v>0.9964117671208325</v>
+      </c>
+      <c r="Q8">
+        <v>21.17593971706778</v>
+      </c>
+      <c r="R8">
+        <v>190.58345745361</v>
+      </c>
+      <c r="S8">
+        <v>0.6162647222554527</v>
+      </c>
+      <c r="T8">
+        <v>0.6162647222554528</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>15.96019966666667</v>
+      </c>
+      <c r="H9">
+        <v>47.880599</v>
+      </c>
+      <c r="I9">
+        <v>0.6184839868322428</v>
+      </c>
+      <c r="J9">
+        <v>0.6184839868322429</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.004778</v>
+      </c>
+      <c r="N9">
+        <v>0.014334</v>
+      </c>
+      <c r="O9">
+        <v>0.003588232879167623</v>
+      </c>
+      <c r="P9">
+        <v>0.003588232879167622</v>
+      </c>
+      <c r="Q9">
+        <v>0.07625783400733334</v>
+      </c>
+      <c r="R9">
+        <v>0.686320506066</v>
+      </c>
+      <c r="S9">
+        <v>0.002219264576790129</v>
+      </c>
+      <c r="T9">
+        <v>0.002219264576790129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.3268106666666666</v>
+      </c>
+      <c r="H10">
+        <v>0.980432</v>
+      </c>
+      <c r="I10">
+        <v>0.01266445083901121</v>
+      </c>
+      <c r="J10">
+        <v>0.01266445083901121</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.326796666666667</v>
+      </c>
+      <c r="N10">
+        <v>3.98039</v>
+      </c>
+      <c r="O10">
+        <v>0.9964117671208325</v>
+      </c>
+      <c r="P10">
+        <v>0.9964117671208325</v>
+      </c>
+      <c r="Q10">
+        <v>0.4336113031644444</v>
+      </c>
+      <c r="R10">
+        <v>3.90250172848</v>
+      </c>
+      <c r="S10">
+        <v>0.01261900784011407</v>
+      </c>
+      <c r="T10">
+        <v>0.01261900784011407</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.3268106666666666</v>
+      </c>
+      <c r="H11">
+        <v>0.980432</v>
+      </c>
+      <c r="I11">
+        <v>0.01266445083901121</v>
+      </c>
+      <c r="J11">
+        <v>0.01266445083901121</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.004778</v>
+      </c>
+      <c r="N11">
+        <v>0.014334</v>
+      </c>
+      <c r="O11">
+        <v>0.003588232879167623</v>
+      </c>
+      <c r="P11">
+        <v>0.003588232879167622</v>
+      </c>
+      <c r="Q11">
+        <v>0.001561501365333333</v>
+      </c>
+      <c r="R11">
+        <v>0.014053512288</v>
+      </c>
+      <c r="S11">
+        <v>4.544299889714201E-05</v>
+      </c>
+      <c r="T11">
+        <v>4.544299889714201E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.008676333333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.026029</v>
+      </c>
+      <c r="I12">
+        <v>0.0003362221866367304</v>
+      </c>
+      <c r="J12">
+        <v>0.0003362221866367304</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.326796666666667</v>
+      </c>
+      <c r="N12">
+        <v>3.98039</v>
+      </c>
+      <c r="O12">
+        <v>0.9964117671208325</v>
+      </c>
+      <c r="P12">
+        <v>0.9964117671208325</v>
+      </c>
+      <c r="Q12">
+        <v>0.01151173014555555</v>
+      </c>
+      <c r="R12">
+        <v>0.10360557131</v>
+      </c>
+      <c r="S12">
+        <v>0.0003350157431319349</v>
+      </c>
+      <c r="T12">
+        <v>0.0003350157431319349</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.008676333333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.026029</v>
+      </c>
+      <c r="I13">
+        <v>0.0003362221866367304</v>
+      </c>
+      <c r="J13">
+        <v>0.0003362221866367304</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.004778</v>
+      </c>
+      <c r="N13">
+        <v>0.014334</v>
+      </c>
+      <c r="O13">
+        <v>0.003588232879167623</v>
+      </c>
+      <c r="P13">
+        <v>0.003588232879167622</v>
+      </c>
+      <c r="Q13">
+        <v>4.145552066666666E-05</v>
+      </c>
+      <c r="R13">
+        <v>0.000373099686</v>
+      </c>
+      <c r="S13">
+        <v>1.206443504795549E-06</v>
+      </c>
+      <c r="T13">
+        <v>1.206443504795549E-06</v>
       </c>
     </row>
   </sheetData>
